--- a/experiment result/128_0.9_40_zs10_kappa_lp.xlsx
+++ b/experiment result/128_0.9_40_zs10_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.007902108092704602</v>
+        <v>0.004132043339180094</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01064357146730104</v>
+        <v>0.007398856525221454</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.01464580988787421</v>
+        <v>0.01219637249520435</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.01674200591241539</v>
+        <v>0.0167127567125205</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.005552514079974443</v>
+        <v>0.002527790373196035</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.009358949556214257</v>
+        <v>0.007056192398874732</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.02116752014518929</v>
+        <v>0.01638389367515954</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01367391062812973</v>
+        <v>0.005598375049147382</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.008546350840274872</v>
+        <v>0.001743038076060158</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.009350849259899745</v>
+        <v>0.01017218607816175</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.009358578107521413</v>
+        <v>0.0005298329674870558</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.01113947859415563</v>
+        <v>0.006452797320532331</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01147133618354251</v>
+        <v>0.00549978623982618</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.01072456928175542</v>
+        <v>0.002810786777045273</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.009903644708610885</v>
+        <v>0.004694194320080473</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01050904361196884</v>
+        <v>0.0013050686531803</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.01030044702016769</v>
+        <v>0.002923146136530608</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.002818942455927938</v>
+        <v>0.0003812086059613765</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.01045224859385996</v>
+        <v>0.02099089596600419</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.005586530486057345</v>
+        <v>0.004617421307308982</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.00525511287608889</v>
+        <v>0.0004649166769046246</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.006480017930109943</v>
+        <v>0.001066616350966401</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.008984291344592301</v>
+        <v>0.002692856177759449</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.001867843334015666</v>
+        <v>0.0006138820253015402</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.002830282956188686</v>
+        <v>0.0002105361112542697</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.008976349073861989</v>
+        <v>0.002740845401910811</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.004333115352059695</v>
+        <v>0.0005003665743118981</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01122542986137398</v>
+        <v>0.01511070396438173</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.005671259890114091</v>
+        <v>0.0007874805302855598</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.01174521006015429</v>
+        <v>0.003594206229613683</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.005400761296342845</v>
+        <v>0.000664919711770364</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.005779972330368999</v>
+        <v>0.003209263874921957</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.01433334062848818</v>
+        <v>0.00316165513084861</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.008451412814904536</v>
+        <v>0.001302717110401168</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.009100728397290975</v>
+        <v>0.005496410396394816</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01089291840933161</v>
+        <v>0.01615233342769015</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.003351097780170293</v>
+        <v>0.000932026672765612</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.007733268613211013</v>
+        <v>0.001863252986535458</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.0135033807094014</v>
+        <v>0.02761802008506293</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.01292698233851269</v>
+        <v>0.01575295851578991</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.01082481496061602</v>
+        <v>0.04510417435944748</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.007957213825457422</v>
+        <v>0.002212789603825163</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01362755038187665</v>
+        <v>0.01553945223952316</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.005428402660341033</v>
+        <v>0.005039687875106196</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01063939139207239</v>
+        <v>0.0078036567773382</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.02364848045969986</v>
+        <v>0.001903467049399943</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.01215112013864188</v>
+        <v>0.006679043302218346</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.005259446300202143</v>
+        <v>0.01045550461324114</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.007149276327191324</v>
+        <v>0.0005237419478740636</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.003401412407619631</v>
+        <v>0.001293982145370888</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01026505051130235</v>
+        <v>0.01398473295336932</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.00850805631013779</v>
+        <v>0.001570662142859631</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.001696529868771497</v>
+        <v>0.001074229645576825</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.003604292403476637</v>
+        <v>0.001081647399851104</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01166682643494709</v>
+        <v>0.009546664292355993</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.009432266980692222</v>
+        <v>0.009245058835966144</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.008826591624346519</v>
+        <v>0.01000663495993409</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.007569869777541443</v>
+        <v>0.009146115501413098</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.008837585991269058</v>
+        <v>0.004612229815132153</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.003891957286056831</v>
+        <v>0.000651220759151285</v>
       </c>
     </row>
   </sheetData>
